--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H2">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I2">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J2">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.98274157183</v>
+        <v>5.427676247935667</v>
       </c>
       <c r="R2">
-        <v>11.89644943098</v>
+        <v>32.566057487614</v>
       </c>
       <c r="S2">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="T2">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>1176.01651</v>
       </c>
       <c r="I3">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J3">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>983.08159340242</v>
       </c>
       <c r="S3">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="T3">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>225.9980216666667</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H4">
-        <v>677.994065</v>
+        <v>1125.305603</v>
       </c>
       <c r="I4">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J4">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>62.97374607602556</v>
+        <v>104.5211351536696</v>
       </c>
       <c r="R4">
-        <v>566.7637146842301</v>
+        <v>940.6902163830262</v>
       </c>
       <c r="S4">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="T4">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.69026</v>
+        <v>19.6220475</v>
       </c>
       <c r="H5">
-        <v>25.38052</v>
+        <v>39.244095</v>
       </c>
       <c r="I5">
-        <v>0.01659846387725661</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J5">
-        <v>0.01116202833655136</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>3.536107108306667</v>
+        <v>5.467631210415001</v>
       </c>
       <c r="R5">
-        <v>21.21664264984</v>
+        <v>32.80578726249001</v>
       </c>
       <c r="S5">
-        <v>0.01659846387725661</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="T5">
-        <v>0.01116202833655136</v>
+        <v>0.01116518902553968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.311581666666666</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H6">
-        <v>21.934745</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I6">
-        <v>0.009563320545030469</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J6">
-        <v>0.009646620528067522</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>2.037352733865556</v>
+        <v>37.17636771358512</v>
       </c>
       <c r="R6">
-        <v>18.33617460479</v>
+        <v>334.587309422266</v>
       </c>
       <c r="S6">
-        <v>0.009563320545030469</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="T6">
-        <v>0.009646620528067522</v>
+        <v>0.1138741321875775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>119.4232813333333</v>
+        <v>245.0287756666667</v>
       </c>
       <c r="H7">
-        <v>358.269844</v>
+        <v>735.086327</v>
       </c>
       <c r="I7">
-        <v>0.1562019234684543</v>
+        <v>0.2068357084841073</v>
       </c>
       <c r="J7">
-        <v>0.1575624987533681</v>
+        <v>0.2091366303910096</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>33.27697888144978</v>
+        <v>68.27661492944823</v>
       </c>
       <c r="R7">
-        <v>299.492809933048</v>
+        <v>614.489534365034</v>
       </c>
       <c r="S7">
-        <v>0.1562019234684543</v>
+        <v>0.2068357084841073</v>
       </c>
       <c r="T7">
-        <v>0.1575624987533681</v>
+        <v>0.2091366303910096</v>
       </c>
     </row>
   </sheetData>
